--- a/test_urls.XLSX
+++ b/test_urls.XLSX
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bozga\OneDrive\Desktop\OpenFoodExtracting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bozga\OneDrive\Desktop\OpenFoodExtracting\OpenFoodExtracting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B64E9C7-BD32-4413-9F72-11F4BD0F0BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88ADF8C4-FD48-41D4-9229-DE705CDD5221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>https://ro.openfoodfacts.org/product/0915261025504/cri%C8%99-bacon-300g</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>https://ro.openfoodfacts.org/product/3017620422003/nutella</t>
   </si>
   <si>
@@ -55,6 +52,9 @@
   </si>
   <si>
     <t>https://ro.openfoodfacts.org/product/8000500310427/ferrero-nutella-biscuits-resealable-bag</t>
+  </si>
+  <si>
+    <t>products_usrl</t>
   </si>
 </sst>
 </file>
@@ -375,7 +375,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -385,37 +385,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
